--- a/Pesca y Acuicultura/19.4.xlsx
+++ b/Pesca y Acuicultura/19.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Pesca y Acuicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5D53C2-BD26-4E5F-BA8D-34AD427241E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E313C-271B-43CB-918A-14AD5C530005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BD3D5D71-D5E5-47BD-9B23-9018F870162A}"/>
   </bookViews>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197A65F5-7BC8-4A66-9442-55CE9289E135}">
   <dimension ref="A1:T1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pesca y Acuicultura/19.4.xlsx
+++ b/Pesca y Acuicultura/19.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Pesca y Acuicultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E313C-271B-43CB-918A-14AD5C530005}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197AC1C-CB9F-47DB-A92B-7654039FC905}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BD3D5D71-D5E5-47BD-9B23-9018F870162A}"/>
   </bookViews>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197A65F5-7BC8-4A66-9442-55CE9289E135}">
   <dimension ref="A1:T1346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
